--- a/doc/LDoE.xlsx
+++ b/doc/LDoE.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -394,7 +394,7 @@
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,15 +424,15 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>C3*20</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f>C3*10</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -440,15 +440,15 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <f>C4*10</f>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <f>C4*20</f>
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -456,15 +456,15 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <f>C6*5</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <f>C6*5</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -472,15 +472,15 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f>C7*10</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <f>C7*5</f>
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -488,16 +488,16 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -506,19 +506,19 @@
       </c>
       <c r="D11">
         <f>SUM(D3:D7)-D9</f>
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:G11" si="0">SUM(E3:E7)-E9</f>
-        <v>20</v>
+        <v>-57</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>144</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -527,7 +527,7 @@
       </c>
       <c r="C13">
         <f>E11+F11*2</f>
-        <v>548</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
       </c>
       <c r="C14">
         <f>D11+G11*2</f>
-        <v>234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -545,7 +545,7 @@
       </c>
       <c r="C15">
         <f>G11</f>
-        <v>30</v>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>

--- a/doc/LDoE.xlsx
+++ b/doc/LDoE.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -68,15 +68,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,12 +90,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,18 +496,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G15"/>
+  <dimension ref="B1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>3</v>
       </c>
@@ -418,8 +539,21 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -434,8 +568,21 @@
         <f>C3*10</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="14"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="16"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -450,8 +597,36 @@
         <f>C4*20</f>
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="14"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="16"/>
+    </row>
+    <row r="5" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="14"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="16"/>
+    </row>
+    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -466,8 +641,21 @@
         <f>C6*5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -482,8 +670,36 @@
         <f>C7*5</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="14"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -499,8 +715,36 @@
       <c r="G9">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="14"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -520,8 +764,36 @@
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="14"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I12" s="14"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -529,8 +801,21 @@
         <f>E11+F11*2</f>
         <v>231</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="14"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -538,8 +823,21 @@
         <f>D11+G11*2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="19"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -550,5 +848,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/LDoE.xlsx
+++ b/doc/LDoE.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U15"/>
+  <dimension ref="B1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,9 +621,9 @@
       <c r="O5" s="6"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="10"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="16"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -650,12 +650,12 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="16"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -679,9 +679,9 @@
       <c r="O7" s="3"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="4"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="16"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -846,6 +846,11 @@
         <v>-6</v>
       </c>
     </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>59110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
